--- a/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-fr-observation-heartrate.xlsx
+++ b/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-fr-observation-heartrate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4868" uniqueCount="703">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T16:32:25+01:00</t>
+    <t>2023-03-23T15:01:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -322,6 +322,13 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Observation.meta.id</t>
   </si>
   <si>
@@ -603,16 +610,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -631,10 +632,6 @@
     <t>Cette extension permet de définir le niveau d'effort (au repos, à l'effort, après l'effort) lors de la mesure de la fréquence respiratoire</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Observation.extension:bodyPosition</t>
   </si>
   <si>
@@ -691,7 +688,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -742,7 +739,14 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -771,7 +775,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -799,6 +803,9 @@
   </si>
   <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -848,6 +855,9 @@
 value:coding.system}</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
@@ -975,6 +985,9 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1231,7 +1244,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1289,14 +1302,14 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-1
-</t>
+    <t>ele-1
+vs-1</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1324,7 +1337,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1374,7 +1387,7 @@
     <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
   </si>
   <si>
     <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
@@ -1387,8 +1400,8 @@
     <t>closed</t>
   </si>
   <si>
-    <t>obs-7
-vs-2</t>
+    <t>ele-1
+obs-7vs-2</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1521,6 +1534,9 @@
     <t>The identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
@@ -1530,8 +1546,8 @@
     <t>Quantity.system</t>
   </si>
   <si>
-    <t xml:space="preserve">qty-3
-</t>
+    <t>ele-1
+qty-3</t>
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
@@ -1583,8 +1599,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-vs-2</t>
+    <t>ele-1
+obs-6vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1642,6 +1658,9 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
     <t>http://www.interopsante.org/fhir/structuredefinition/observation/fr-obervation-interpretation</t>
   </si>
   <si>
@@ -1692,7 +1711,10 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
     <t>http://models.opencimi.org/ig/vital-signs-fhir-profiles/ValueSet-heartRateMeasBodyLocationPrecoordVS.html</t>
@@ -1884,8 +1906,15 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-3
-</t>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1
+obs-3</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>OBX-7</t>
@@ -2003,7 +2032,17 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
+    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+  </si>
+  <si>
     <t>Some analytes vary greatly over age.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
@@ -2034,7 +2073,7 @@
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -2056,7 +2095,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -2068,7 +2107,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -2125,7 +2164,7 @@
     <t>Vital Sign Value recorded with UCUM.</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
   </si>
   <si>
     <t>Common UCUM units for recording Vital Signs.</t>
@@ -2134,8 +2173,8 @@
     <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-3
-</t>
+    <t>ele-1
+vs-3</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2154,14 +2193,11 @@
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
   </si>
   <si>
-    <t>obs-6
-vs-3</t>
+    <t>ele-1
+obs-6vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -2995,7 +3031,7 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -3010,7 +3046,7 @@
         <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>78</v>
@@ -3021,10 +3057,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -3047,13 +3083,13 @@
         <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3104,7 +3140,7 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -3128,7 +3164,7 @@
         <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>78</v>
@@ -3139,14 +3175,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3165,16 +3201,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3212,19 +3248,19 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -3236,7 +3272,7 @@
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -3248,7 +3284,7 @@
         <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>78</v>
@@ -3259,10 +3295,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3288,13 +3324,13 @@
         <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3344,7 +3380,7 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -3356,7 +3392,7 @@
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -3379,10 +3415,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3405,16 +3441,16 @@
         <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3464,7 +3500,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -3476,7 +3512,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -3499,10 +3535,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3525,16 +3561,16 @@
         <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3584,7 +3620,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3596,7 +3632,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3619,10 +3655,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3645,16 +3681,16 @@
         <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3692,17 +3728,17 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3714,7 +3750,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3737,10 +3773,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>7</v>
@@ -3765,16 +3801,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3824,7 +3860,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3836,7 +3872,7 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3859,10 +3895,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3885,16 +3921,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3920,13 +3956,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3944,7 +3980,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3956,7 +3992,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3979,10 +4015,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -4005,16 +4041,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -4040,13 +4076,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -4064,7 +4100,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -4076,7 +4112,7 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -4099,10 +4135,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4125,16 +4161,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4184,7 +4220,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -4193,10 +4229,10 @@
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -4208,7 +4244,7 @@
         <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -4219,10 +4255,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4245,16 +4281,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4280,13 +4316,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -4304,7 +4340,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -4313,10 +4349,10 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -4328,7 +4364,7 @@
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -4339,14 +4375,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4365,16 +4401,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4424,7 +4460,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -4433,10 +4469,10 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -4448,7 +4484,7 @@
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -4459,14 +4495,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4485,16 +4521,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4544,7 +4580,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -4568,7 +4604,7 @@
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -4579,14 +4615,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4605,15 +4641,17 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4650,14 +4688,16 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>192</v>
@@ -4669,10 +4709,10 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4684,7 +4724,7 @@
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -4698,7 +4738,7 @@
         <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>194</v>
@@ -4789,10 +4829,10 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -4804,7 +4844,7 @@
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4815,13 +4855,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -4843,13 +4883,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4909,10 +4949,10 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -4924,7 +4964,7 @@
         <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4935,16 +4975,16 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4963,15 +5003,17 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -5029,10 +5071,10 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -5044,7 +5086,7 @@
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -5055,13 +5097,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -5083,13 +5125,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5149,10 +5191,10 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -5175,14 +5217,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5201,19 +5243,19 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -5250,19 +5292,19 @@
         <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -5271,10 +5313,10 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -5286,7 +5328,7 @@
         <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -5297,10 +5339,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5323,17 +5365,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -5382,7 +5424,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -5391,25 +5433,25 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>78</v>
@@ -5417,14 +5459,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5443,15 +5485,17 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>231</v>
       </c>
@@ -5502,7 +5546,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -5511,22 +5555,22 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -5537,14 +5581,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5563,16 +5607,16 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5622,7 +5666,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5631,22 +5675,22 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5657,10 +5701,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5683,19 +5727,19 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5720,11 +5764,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5742,7 +5788,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
@@ -5751,25 +5797,25 @@
         <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>78</v>
@@ -5777,10 +5823,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5803,19 +5849,19 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5840,29 +5886,29 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5871,10 +5917,10 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5883,13 +5929,13 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>78</v>
@@ -5897,13 +5943,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
@@ -5925,19 +5971,19 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5962,13 +6008,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5986,7 +6032,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5995,10 +6041,10 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -6007,13 +6053,13 @@
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>78</v>
@@ -6021,10 +6067,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6047,13 +6093,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -6104,7 +6150,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -6128,7 +6174,7 @@
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -6139,14 +6185,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -6165,16 +6211,16 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6212,19 +6258,19 @@
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -6233,10 +6279,10 @@
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -6248,7 +6294,7 @@
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -6259,10 +6305,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6285,19 +6331,19 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -6346,7 +6392,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -6355,10 +6401,10 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -6367,10 +6413,10 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -6381,10 +6427,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6407,13 +6453,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6464,7 +6510,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -6488,7 +6534,7 @@
         <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6499,14 +6545,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6525,16 +6571,16 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6572,19 +6618,19 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6593,10 +6639,10 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6608,7 +6654,7 @@
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6619,10 +6665,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6645,26 +6691,26 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>78</v>
@@ -6706,7 +6752,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6715,10 +6761,10 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6727,10 +6773,10 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6741,10 +6787,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6767,16 +6813,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6826,7 +6872,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6835,10 +6881,10 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6847,10 +6893,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6861,10 +6907,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6887,24 +6933,26 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
@@ -6946,7 +6994,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6955,10 +7003,10 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6967,10 +7015,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6981,10 +7029,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7007,17 +7055,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -7066,7 +7116,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -7075,10 +7125,10 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -7087,10 +7137,10 @@
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -7101,10 +7151,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7127,19 +7177,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -7188,7 +7238,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -7197,10 +7247,10 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -7209,10 +7259,10 @@
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -7223,10 +7273,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7249,19 +7299,19 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -7310,7 +7360,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -7319,10 +7369,10 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -7331,10 +7381,10 @@
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -7345,14 +7395,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7371,19 +7421,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -7408,13 +7458,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -7432,7 +7482,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -7441,36 +7491,36 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7493,13 +7543,13 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7550,7 +7600,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -7574,7 +7624,7 @@
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7585,14 +7635,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7611,16 +7661,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7658,19 +7708,19 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7679,10 +7729,10 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -7694,7 +7744,7 @@
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7705,10 +7755,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7731,19 +7781,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7780,17 +7830,17 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7799,10 +7849,10 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -7811,10 +7861,10 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7825,13 +7875,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>78</v>
@@ -7853,19 +7903,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7914,7 +7964,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7923,10 +7973,10 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7935,10 +7985,10 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7949,10 +7999,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7975,13 +8025,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8032,7 +8082,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -8056,7 +8106,7 @@
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -8067,14 +8117,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8093,16 +8143,16 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8140,19 +8190,19 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -8161,10 +8211,10 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -8176,7 +8226,7 @@
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -8187,10 +8237,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8213,26 +8263,26 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>78</v>
@@ -8274,7 +8324,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -8283,10 +8333,10 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -8295,10 +8345,10 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -8309,10 +8359,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8335,16 +8385,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8394,7 +8444,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -8403,10 +8453,10 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -8415,10 +8465,10 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -8429,10 +8479,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8455,24 +8505,26 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>78</v>
@@ -8514,7 +8566,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8523,10 +8575,10 @@
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -8535,10 +8587,10 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -8549,10 +8601,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8575,17 +8627,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8634,7 +8688,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8643,10 +8697,10 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -8655,10 +8709,10 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -8669,10 +8723,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8695,19 +8749,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8756,7 +8810,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8765,10 +8819,10 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -8777,10 +8831,10 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8791,10 +8845,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8817,19 +8871,19 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8878,7 +8932,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8887,10 +8941,10 @@
         <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8899,10 +8953,10 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8913,10 +8967,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8939,19 +8993,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -9000,7 +9054,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -9009,25 +9063,25 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>78</v>
@@ -9035,10 +9089,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9061,16 +9115,16 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9120,7 +9174,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -9129,10 +9183,10 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -9141,13 +9195,13 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>78</v>
@@ -9155,14 +9209,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9181,19 +9235,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -9242,7 +9296,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -9251,25 +9305,25 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>78</v>
@@ -9277,14 +9331,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9303,19 +9357,19 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -9364,7 +9418,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -9373,25 +9427,25 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>78</v>
@@ -9399,10 +9453,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9425,16 +9479,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9484,7 +9538,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9493,10 +9547,10 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -9505,13 +9559,13 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>78</v>
@@ -9519,10 +9573,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9545,17 +9599,19 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -9604,7 +9660,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -9613,25 +9669,25 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>78</v>
@@ -9639,10 +9695,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9665,19 +9721,19 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9714,17 +9770,17 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9733,39 +9789,39 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>78</v>
@@ -9787,19 +9843,19 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9848,7 +9904,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9857,36 +9913,36 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9909,13 +9965,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9966,7 +10022,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9990,7 +10046,7 @@
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -10001,14 +10057,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10027,16 +10083,16 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10074,19 +10130,19 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -10095,10 +10151,10 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -10110,7 +10166,7 @@
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -10121,10 +10177,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10147,19 +10203,19 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -10208,7 +10264,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -10217,10 +10273,10 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -10229,10 +10285,10 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -10243,10 +10299,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10269,23 +10325,25 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>78</v>
@@ -10306,13 +10364,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -10330,7 +10388,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -10339,10 +10397,10 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -10351,10 +10409,10 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -10365,10 +10423,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10391,17 +10449,19 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O66" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -10450,7 +10510,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -10459,10 +10519,10 @@
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -10471,10 +10531,10 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>78</v>
@@ -10485,10 +10545,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10511,24 +10571,26 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="O67" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>78</v>
@@ -10570,7 +10632,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -10579,10 +10641,10 @@
         <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -10591,10 +10653,10 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -10605,10 +10667,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10631,26 +10693,26 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>78</v>
@@ -10692,7 +10754,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10701,10 +10763,10 @@
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -10713,10 +10775,10 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -10727,10 +10789,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10753,19 +10815,19 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10790,32 +10852,32 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
@@ -10823,10 +10885,10 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -10835,10 +10897,10 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10849,10 +10911,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10875,13 +10937,13 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10932,7 +10994,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10956,7 +11018,7 @@
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10967,14 +11029,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10993,16 +11055,16 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11040,19 +11102,19 @@
         <v>78</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -11064,7 +11126,7 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -11076,7 +11138,7 @@
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -11087,10 +11149,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11113,19 +11175,19 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -11174,7 +11236,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -11186,7 +11248,7 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -11195,10 +11257,10 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
@@ -11209,10 +11271,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11235,13 +11297,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11292,7 +11354,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -11316,7 +11378,7 @@
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>78</v>
@@ -11327,14 +11389,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11353,16 +11415,16 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11400,19 +11462,19 @@
         <v>78</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -11424,7 +11486,7 @@
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -11436,7 +11498,7 @@
         <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>78</v>
@@ -11447,10 +11509,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11473,19 +11535,19 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -11534,7 +11596,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11546,7 +11608,7 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -11555,10 +11617,10 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>78</v>
@@ -11569,10 +11631,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11595,16 +11657,16 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11654,7 +11716,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11666,7 +11728,7 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11675,10 +11737,10 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -11689,10 +11751,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11715,17 +11777,17 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -11774,7 +11836,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11786,7 +11848,7 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11795,10 +11857,10 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11809,10 +11871,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11835,17 +11897,17 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11894,7 +11956,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11906,7 +11968,7 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11915,10 +11977,10 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
@@ -11929,10 +11991,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11955,19 +12017,19 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -12016,7 +12078,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -12028,7 +12090,7 @@
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -12037,10 +12099,10 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>78</v>
@@ -12051,10 +12113,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12077,19 +12139,19 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -12138,7 +12200,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -12150,7 +12212,7 @@
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -12159,10 +12221,10 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>78</v>
@@ -12173,14 +12235,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12199,19 +12261,19 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -12236,11 +12298,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="Y81" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="Z81" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -12258,7 +12322,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -12267,36 +12331,36 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12319,19 +12383,19 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -12380,7 +12444,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -12389,10 +12453,10 @@
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -12401,10 +12465,10 @@
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
@@ -12415,10 +12479,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12441,16 +12505,16 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12476,11 +12540,13 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -12498,7 +12564,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -12507,36 +12573,36 @@
         <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12559,13 +12625,13 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12616,7 +12682,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12640,7 +12706,7 @@
         <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>78</v>
@@ -12651,14 +12717,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12677,16 +12743,16 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12724,19 +12790,19 @@
         <v>78</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12745,10 +12811,10 @@
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12760,7 +12826,7 @@
         <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>78</v>
@@ -12771,10 +12837,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12797,19 +12863,19 @@
         <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12834,11 +12900,11 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>78</v>
@@ -12856,7 +12922,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12865,10 +12931,10 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12877,10 +12943,10 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>78</v>
@@ -12891,10 +12957,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12917,19 +12983,19 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -12978,7 +13044,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12987,10 +13053,10 @@
         <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12999,10 +13065,10 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>78</v>
@@ -13013,10 +13079,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13039,19 +13105,19 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -13076,13 +13142,13 @@
         <v>78</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>78</v>
@@ -13100,7 +13166,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -13109,10 +13175,10 @@
         <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -13121,10 +13187,10 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>78</v>
@@ -13135,10 +13201,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13161,13 +13227,13 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13218,7 +13284,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -13242,7 +13308,7 @@
         <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>78</v>
@@ -13253,14 +13319,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13279,16 +13345,16 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13326,19 +13392,19 @@
         <v>78</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -13347,10 +13413,10 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -13362,7 +13428,7 @@
         <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>78</v>
@@ -13373,10 +13439,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13399,19 +13465,19 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -13436,11 +13502,11 @@
         <v>78</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>78</v>
@@ -13458,7 +13524,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -13467,10 +13533,10 @@
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -13479,10 +13545,10 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>78</v>
@@ -13493,10 +13559,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13519,19 +13585,19 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -13580,7 +13646,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13589,10 +13655,10 @@
         <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
@@ -13601,10 +13667,10 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>78</v>
@@ -13615,10 +13681,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13641,16 +13707,16 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13700,7 +13766,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13709,36 +13775,36 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13761,16 +13827,16 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13820,7 +13886,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13829,36 +13895,36 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13881,19 +13947,19 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -13942,7 +14008,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13951,10 +14017,10 @@
         <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13963,10 +14029,10 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>78</v>
@@ -13977,10 +14043,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14003,13 +14069,13 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -14060,7 +14126,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -14084,7 +14150,7 @@
         <v>78</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>78</v>
@@ -14095,14 +14161,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14121,16 +14187,16 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14168,19 +14234,19 @@
         <v>78</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -14189,10 +14255,10 @@
         <v>77</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -14204,7 +14270,7 @@
         <v>78</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>78</v>
@@ -14215,14 +14281,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14241,19 +14307,19 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -14302,7 +14368,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -14311,10 +14377,10 @@
         <v>77</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
@@ -14326,7 +14392,7 @@
         <v>78</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>78</v>
@@ -14337,10 +14403,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14363,15 +14429,17 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -14420,7 +14488,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -14429,10 +14497,10 @@
         <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>122</v>
+        <v>609</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -14441,10 +14509,10 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>78</v>
@@ -14455,10 +14523,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14481,15 +14549,17 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -14538,7 +14608,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -14547,10 +14617,10 @@
         <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>122</v>
+        <v>609</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -14559,10 +14629,10 @@
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>78</v>
@@ -14573,10 +14643,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14599,19 +14669,19 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>78</v>
@@ -14636,13 +14706,13 @@
         <v>78</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>78</v>
@@ -14660,7 +14730,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -14669,22 +14739,22 @@
         <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>78</v>
@@ -14695,10 +14765,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14721,19 +14791,19 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14758,13 +14828,13 @@
         <v>78</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>78</v>
@@ -14782,7 +14852,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -14791,22 +14861,22 @@
         <v>77</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>78</v>
@@ -14817,10 +14887,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14843,13 +14913,13 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14900,7 +14970,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -14924,7 +14994,7 @@
         <v>78</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>78</v>
@@ -14935,14 +15005,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14961,16 +15031,16 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15008,19 +15078,19 @@
         <v>78</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -15032,7 +15102,7 @@
         <v>78</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
@@ -15044,7 +15114,7 @@
         <v>78</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>78</v>
@@ -15055,10 +15125,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15081,19 +15151,19 @@
         <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
@@ -15142,7 +15212,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -15154,7 +15224,7 @@
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
@@ -15163,10 +15233,10 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>78</v>
@@ -15177,10 +15247,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15203,13 +15273,13 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15260,7 +15330,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -15284,7 +15354,7 @@
         <v>78</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>78</v>
@@ -15295,14 +15365,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15321,16 +15391,16 @@
         <v>78</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15368,19 +15438,19 @@
         <v>78</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -15392,7 +15462,7 @@
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
@@ -15404,7 +15474,7 @@
         <v>78</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>78</v>
@@ -15415,10 +15485,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15441,19 +15511,19 @@
         <v>89</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -15502,7 +15572,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -15514,7 +15584,7 @@
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -15523,10 +15593,10 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>78</v>
@@ -15537,10 +15607,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15563,16 +15633,16 @@
         <v>89</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15622,7 +15692,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
@@ -15634,7 +15704,7 @@
         <v>78</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>78</v>
@@ -15643,10 +15713,10 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>78</v>
@@ -15657,10 +15727,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15683,17 +15753,17 @@
         <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -15742,7 +15812,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -15754,7 +15824,7 @@
         <v>78</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>78</v>
@@ -15763,10 +15833,10 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>78</v>
@@ -15777,10 +15847,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15803,17 +15873,17 @@
         <v>89</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15862,7 +15932,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
@@ -15874,7 +15944,7 @@
         <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>78</v>
@@ -15883,10 +15953,10 @@
         <v>78</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>78</v>
@@ -15897,10 +15967,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15923,19 +15993,19 @@
         <v>89</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
@@ -15984,7 +16054,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -15996,7 +16066,7 @@
         <v>78</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>78</v>
@@ -16005,10 +16075,10 @@
         <v>78</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>78</v>
@@ -16019,10 +16089,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16045,19 +16115,19 @@
         <v>89</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -16106,7 +16176,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
@@ -16118,7 +16188,7 @@
         <v>78</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>78</v>
@@ -16127,10 +16197,10 @@
         <v>78</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -16141,10 +16211,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16167,17 +16237,19 @@
         <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>645</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="O114" t="s" s="2">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -16226,7 +16298,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -16235,10 +16307,10 @@
         <v>88</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>122</v>
+        <v>648</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>78</v>
@@ -16247,10 +16319,10 @@
         <v>78</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>78</v>
+        <v>649</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>78</v>
@@ -16261,10 +16333,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16287,15 +16359,17 @@
         <v>78</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -16344,7 +16418,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
@@ -16353,10 +16427,10 @@
         <v>88</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>78</v>
@@ -16365,10 +16439,10 @@
         <v>78</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
@@ -16379,10 +16453,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16405,16 +16479,16 @@
         <v>89</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16464,7 +16538,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>76</v>
@@ -16473,10 +16547,10 @@
         <v>77</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>78</v>
@@ -16485,10 +16559,10 @@
         <v>78</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>78</v>
@@ -16499,10 +16573,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16525,16 +16599,16 @@
         <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16584,7 +16658,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
@@ -16593,10 +16667,10 @@
         <v>77</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>78</v>
@@ -16605,10 +16679,10 @@
         <v>78</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>78</v>
@@ -16619,10 +16693,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16645,19 +16719,19 @@
         <v>89</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>78</v>
@@ -16706,7 +16780,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
@@ -16715,10 +16789,10 @@
         <v>77</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>78</v>
@@ -16727,10 +16801,10 @@
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>78</v>
@@ -16741,10 +16815,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16767,13 +16841,13 @@
         <v>78</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16824,7 +16898,7 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>76</v>
@@ -16848,7 +16922,7 @@
         <v>78</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>78</v>
@@ -16859,14 +16933,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16885,16 +16959,16 @@
         <v>78</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16932,19 +17006,19 @@
         <v>78</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD120" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>76</v>
@@ -16953,10 +17027,10 @@
         <v>77</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>78</v>
@@ -16968,7 +17042,7 @@
         <v>78</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>78</v>
@@ -16979,14 +17053,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -17005,19 +17079,19 @@
         <v>89</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>78</v>
@@ -17066,7 +17140,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>76</v>
@@ -17075,10 +17149,10 @@
         <v>77</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>78</v>
@@ -17090,7 +17164,7 @@
         <v>78</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>78</v>
@@ -17101,10 +17175,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17127,19 +17201,19 @@
         <v>89</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>78</v>
@@ -17164,13 +17238,13 @@
         <v>78</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>78</v>
@@ -17188,7 +17262,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>88</v>
@@ -17197,25 +17271,25 @@
         <v>88</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>78</v>
@@ -17223,10 +17297,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17249,19 +17323,19 @@
         <v>89</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>78</v>
@@ -17286,13 +17360,13 @@
         <v>78</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>78</v>
@@ -17310,7 +17384,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>76</v>
@@ -17319,36 +17393,36 @@
         <v>88</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17371,19 +17445,19 @@
         <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>78</v>
@@ -17408,13 +17482,13 @@
         <v>78</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>78</v>
@@ -17432,7 +17506,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>76</v>
@@ -17441,10 +17515,10 @@
         <v>88</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>78</v>
@@ -17453,10 +17527,10 @@
         <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>78</v>
@@ -17467,14 +17541,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17493,19 +17567,19 @@
         <v>78</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>78</v>
@@ -17530,13 +17604,13 @@
         <v>78</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>687</v>
+        <v>528</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>78</v>
@@ -17554,7 +17628,7 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>76</v>
@@ -17563,36 +17637,36 @@
         <v>77</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17618,16 +17692,16 @@
         <v>79</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>78</v>
@@ -17676,7 +17750,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>76</v>
@@ -17688,7 +17762,7 @@
         <v>78</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>78</v>
@@ -17697,10 +17771,10 @@
         <v>78</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>78</v>
